--- a/Jumlah Tindak Pidana Menurut Kepolisian Daerah.xlsx
+++ b/Jumlah Tindak Pidana Menurut Kepolisian Daerah.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosral/Desktop/tetris/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E1AB06-76DE-7541-B9E5-5230F245E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFA8A4-A5B0-E54D-B655-B97A1BBFACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2101,7 +2111,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4020,7 +4030,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A36 B1:B24 B26:B30 B32:B33 B35:B36" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B24 B26:B30 B32:B33 B35:B36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>